--- a/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
+++ b/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>SOURCE: https://youtube.com/playlist?list=PLFWDoeAHRLTY1I4anPC9kTMwAX4iWUz_n&amp;si=fmLyVNmHOXhTwozi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>All Steps:</t>
   </si>
@@ -144,26 +141,48 @@
   </si>
   <si>
     <t xml:space="preserve"> - tạo file connect.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE: </t>
+  </si>
+  <si>
+    <t>https://youtube.com/playlist?list=PLFWDoeAHRLTY1I4anPC9kTMwAX4iWUz_n&amp;si=fmLyVNmHOXhTwozi</t>
+  </si>
+  <si>
+    <t>Tạo file index.js tại thư mục root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,13 +194,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,213 +483,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>36</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
+++ b/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>All Steps:</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve"> - Cấu hình SQL server cho phép kết nối localhost thông qua tài khoản sa</t>
   </si>
   <si>
-    <t>cú pháp cài đặt: npm install mssql msnodesqlv8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - tạo file connect.js</t>
   </si>
   <si>
@@ -150,13 +147,36 @@
   </si>
   <si>
     <t>Tạo file index.js tại thư mục root</t>
+  </si>
+  <si>
+    <t>https://install.advancedrestclient.com/install</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/hello?name=Ngoc hoang&amp;email=hoang@gmail.com</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/hello?key=value&amp;key1=value1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cú pháp cài đặt: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>npm install mssql msnodesqlv8</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -169,6 +189,12 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -483,20 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -517,97 +546,102 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -625,57 +659,58 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -686,61 +721,86 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>34</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>38</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="A42" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
+++ b/JS04_NodeJS_2021_SQL_Server/ALL_NOTE.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>All Steps:</t>
   </si>
   <si>
-    <t>Video 01:</t>
-  </si>
-  <si>
     <t>Step 1: Cài đặt Node JS</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>})</t>
-  </si>
-  <si>
-    <t>Video 02:</t>
   </si>
   <si>
     <t>Web muốn chạy được thì phải có link hay còn gọi là ROUTE, có các loại route tương ứng với các phương thức:</t>
@@ -170,6 +164,27 @@
       </rPr>
       <t>npm install mssql msnodesqlv8</t>
     </r>
+  </si>
+  <si>
+    <t>Video 06 - Lệnh SELECT cơ bản - hiển thị thông tin từ bảng lên màn hình</t>
+  </si>
+  <si>
+    <t>Video 07 - Thêm, sửa, xóa dữ liệu trong bảng- phương thức POST, PUT, DELETE</t>
+  </si>
+  <si>
+    <t>Video 08 - Quản lý code theo mô hình MVC cơ bản - hiệu quả</t>
+  </si>
+  <si>
+    <t>Video 09 - Áp dụng MVC cho các bảng dữ liệu khác dễ dàng và nhanh chóng</t>
+  </si>
+  <si>
+    <t>Video 10 - Lệnh npm update - khi chia sẻ hoặc tải ứng dụng node trên mạng về</t>
+  </si>
+  <si>
+    <t>Video 01 - Cài đặt nodejs - giới thiệu về npm tạo ứng dụng node đầu tiên</t>
+  </si>
+  <si>
+    <t>Video 02 - cài đặt cấu hình ứng dụng với express tìm hiểu về route</t>
   </si>
 </sst>
 </file>
@@ -197,7 +212,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,10 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,20 +534,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -535,7 +557,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -547,108 +569,128 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -659,58 +701,58 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -721,19 +763,23 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -744,14 +790,15 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -762,39 +809,109 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="63" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>35</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
